--- a/tests/data/desired/columnscomparisonreport.xlsx
+++ b/tests/data/desired/columnscomparisonreport.xlsx
@@ -22,18 +22,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">normal!$B$2:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">detailed!$B$2:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">aggregated!$B$2:$H$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">summary!$B$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">summary!$B$2:$D$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">interlaced2!$B$2:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">normal2!$B$2:$I$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">detailed2!$B$2:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">aggregated2!$B$2:$H$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">summary2!$B$2:$D$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">summary2!$B$2:$D$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="57">
   <si>
     <t># of Diffs</t>
   </si>
@@ -173,25 +173,34 @@
     <t>Abone8</t>
   </si>
   <si>
+    <t>Total Rows</t>
+  </si>
+  <si>
     <t>Equal Rows</t>
   </si>
   <si>
+    <t>Different Rows</t>
+  </si>
+  <si>
     <t>Matching Rows</t>
   </si>
   <si>
-    <t>Different Rows</t>
-  </si>
-  <si>
-    <t>Total Rows</t>
-  </si>
-  <si>
-    <t>(Source1) - Rows</t>
+    <t>Non-matching Rows</t>
+  </si>
+  <si>
+    <t>(Source1) - Total Rows</t>
+  </si>
+  <si>
+    <t>(Source1) - Matching Rows</t>
   </si>
   <si>
     <t>(Source1) - Non-matching Rows</t>
   </si>
   <si>
-    <t>(Source2) - Rows</t>
+    <t>(Source2) - Total Rows</t>
+  </si>
+  <si>
+    <t>(Source2) - Matching Rows</t>
   </si>
   <si>
     <t>(Source2) - Non-matching Rows</t>
@@ -578,10 +587,10 @@
         <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="6">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -589,10 +598,10 @@
         <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -611,10 +620,10 @@
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +631,10 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n" s="6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -633,10 +642,10 @@
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
@@ -644,10 +653,10 @@
         <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n" s="6">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -661,8 +670,41 @@
         <v>0.3333333333333333</v>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D12" t="n" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="n" s="6">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:D10"/>
+  <autoFilter ref="B2:D13"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1549,10 +1591,10 @@
         <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n" s="6">
-        <v>0.25</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1560,10 +1602,10 @@
         <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -1582,10 +1624,10 @@
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -1593,10 +1635,10 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n" s="6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1604,10 +1646,10 @@
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
@@ -1615,10 +1657,10 @@
         <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n" s="6">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -1632,8 +1674,41 @@
         <v>0.3333333333333333</v>
       </c>
     </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D12" t="n" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="n" s="6">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:D10"/>
+  <autoFilter ref="B2:D13"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>

--- a/tests/data/desired/columnscomparisonreport.xlsx
+++ b/tests/data/desired/columnscomparisonreport.xlsx
@@ -653,7 +653,7 @@
         <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9" t="n" s="6">
         <v>0.6666666666666666</v>
@@ -686,7 +686,7 @@
         <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" t="n" s="6">
         <v>0.6666666666666666</v>
@@ -1657,7 +1657,7 @@
         <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9" t="n" s="6">
         <v>0.6666666666666666</v>
@@ -1690,7 +1690,7 @@
         <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" t="n" s="6">
         <v>0.6666666666666666</v>

--- a/tests/data/desired/columnscomparisonreport.xlsx
+++ b/tests/data/desired/columnscomparisonreport.xlsx
@@ -16,6 +16,7 @@
     <sheet name="detailed2" r:id="rId10" sheetId="8"/>
     <sheet name="aggregated2" r:id="rId11" sheetId="9"/>
     <sheet name="summary2" r:id="rId12" sheetId="10"/>
+    <sheet name="nocolumns" r:id="rId13" sheetId="11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">interlaced!$B$2:$I$10</definedName>
@@ -28,12 +29,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">detailed2!$B$2:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">aggregated2!$B$2:$H$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">summary2!$B$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">nocolumns!$B$2:$I$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="57">
   <si>
     <t># of Diffs</t>
   </si>
@@ -709,6 +711,264 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/tests/data/desired/columnscomparisonreport.xlsx
+++ b/tests/data/desired/columnscomparisonreport.xlsx
@@ -16,7 +16,12 @@
     <sheet name="detailed2" r:id="rId10" sheetId="8"/>
     <sheet name="aggregated2" r:id="rId11" sheetId="9"/>
     <sheet name="summary2" r:id="rId12" sheetId="10"/>
-    <sheet name="nocolumns" r:id="rId13" sheetId="11"/>
+    <sheet name="interlaced3" r:id="rId13" sheetId="11"/>
+    <sheet name="normal3" r:id="rId14" sheetId="12"/>
+    <sheet name="detailed3" r:id="rId15" sheetId="13"/>
+    <sheet name="aggregated3" r:id="rId16" sheetId="14"/>
+    <sheet name="summary3" r:id="rId17" sheetId="15"/>
+    <sheet name="nocolumns" r:id="rId18" sheetId="16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">interlaced!$B$2:$I$10</definedName>
@@ -29,13 +34,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">detailed2!$B$2:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">aggregated2!$B$2:$H$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">summary2!$B$2:$D$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">nocolumns!$B$2:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="true">interlaced3!$B$2:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="true">normal3!$B$2:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="true">detailed3!$B$2:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="true">aggregated3!$B$2:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="true">summary3!$B$2:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="true">nocolumns!$B$2:$I$10</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="57">
   <si>
     <t># of Diffs</t>
   </si>
@@ -46,13 +56,13 @@
     <t>FIRST_NAME (Source1)</t>
   </si>
   <si>
+    <t>FIRST_NAME (Source2)</t>
+  </si>
+  <si>
     <t>LAST_NAME (Source1)</t>
   </si>
   <si>
     <t>AGE (Source1)</t>
-  </si>
-  <si>
-    <t>FIRST_NAME (Source2)</t>
   </si>
   <si>
     <t>LAST_NAME (Source2)</t>
@@ -97,10 +107,10 @@
     <t>1Martin1</t>
   </si>
   <si>
-    <t>1Velky1</t>
+    <t>2Bruce1</t>
   </si>
   <si>
-    <t>2Bruce1</t>
+    <t>1Velky1</t>
   </si>
   <si>
     <t>2Abone1</t>
@@ -124,10 +134,10 @@
     <t>1Martin2</t>
   </si>
   <si>
-    <t>1Velky2</t>
+    <t>2Bruce2</t>
   </si>
   <si>
-    <t>2Bruce2</t>
+    <t>1Velky2</t>
   </si>
   <si>
     <t>2Abone2</t>
@@ -136,10 +146,10 @@
     <t>1Martin3</t>
   </si>
   <si>
-    <t>1Velky3</t>
+    <t>&lt;&lt;missing&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;missing&gt;&gt;</t>
+    <t>1Velky3</t>
   </si>
   <si>
     <t>2Bruce4</t>
@@ -215,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="351">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -233,7 +243,2097 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="63"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color rgb="D02020"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="23"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="646464"/>
       <u val="none"/>
     </font>
   </fonts>
@@ -290,14 +2390,362 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="57" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="85" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="91" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="95" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="96" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="97" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="100" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="101" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="102" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="103" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="104" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="105" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="106" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="107" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="108" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="109" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="110" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="112" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="114" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="115" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="116" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="118" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="119" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="121" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="122" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="123" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="124" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="125" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="126" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="127" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="128" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="129" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="130" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="131" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="132" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="133" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="134" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="135" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="136" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="137" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="138" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="139" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="141" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="143" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="144" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="145" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="146" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="147" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="148" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="149" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="150" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="151" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="152" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="153" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="154" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="155" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="156" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="157" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="158" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="159" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="160" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="161" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="162" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="163" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="165" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="167" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="169" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="171" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="172" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="173" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="174" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="175" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="176" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="177" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="178" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="179" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="180" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="181" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="182" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="183" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="184" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="185" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="186" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="187" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="188" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="189" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="190" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="191" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="192" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="193" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="194" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="195" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="196" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="197" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="198" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="199" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="200" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="201" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="202" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="203" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="204" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="205" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="206" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="207" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="208" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="209" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="210" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="211" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="212" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="213" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="214" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="215" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="216" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="217" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="218" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="219" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="220" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="221" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="222" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="223" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="224" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="225" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="226" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="227" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="228" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="229" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="230" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="231" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="232" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="233" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="234" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="235" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="236" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="237" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="238" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="239" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="240" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="241" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="242" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="243" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="244" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="245" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="246" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="247" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="248" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="249" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="250" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="251" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="252" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="253" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="254" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="255" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="256" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="257" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="258" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="259" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="260" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="261" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="262" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="263" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="264" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="265" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="266" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="267" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="268" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="269" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="270" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="271" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="272" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="273" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="274" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="275" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="276" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="277" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="278" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="279" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="280" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="281" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="282" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="283" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="284" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="285" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="286" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="287" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="288" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="289" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="290" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="291" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="292" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="293" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="294" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="295" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="296" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="297" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="298" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="299" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="300" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="301" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="302" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="303" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="304" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="305" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="306" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="307" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="308" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="309" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="310" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="311" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="312" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="313" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="314" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="315" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="316" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="317" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="318" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="319" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="320" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="321" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="322" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="323" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="324" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="325" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="326" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="327" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="328" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="329" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="330" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="331" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="332" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="333" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="334" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="335" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="336" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="337" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="338" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="339" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="340" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="341" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="342" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="343" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="344" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="345" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="346" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="347" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="348" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="349" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="350" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -331,174 +2779,174 @@
         <v>2</v>
       </c>
       <c r="E2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n" s="2">
+      <c r="B3" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="7">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n" s="2">
+      <c r="B4" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="26">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="28">
         <v>31</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="n" s="27">
         <v>12.0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="n" s="29">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n" s="2">
+      <c r="B5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="C5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="44">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" t="s" s="46">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n" s="45">
         <v>13.0</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="I5" t="s" s="47">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="2">
+      <c r="B6" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n" s="2">
+      <c r="C6" t="n" s="3">
         <v>4.0</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s" s="2">
+      <c r="D6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="61">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="63">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="s" s="62">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n" s="64">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="2">
+      <c r="B7" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n" s="2">
+      <c r="C7" t="n" s="3">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="78">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" t="s" s="80">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n" s="79">
         <v>15.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7" t="s" s="81">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="2">
+      <c r="B8" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n" s="2">
+      <c r="C8" t="n" s="3">
         <v>6.0</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="2">
+      <c r="D8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="95">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="97">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="s" s="96">
+        <v>33</v>
+      </c>
+      <c r="I8" t="n" s="98">
         <v>26.0</v>
       </c>
     </row>
@@ -515,16 +2963,16 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="112">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="114">
         <v>42</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="n" s="113">
         <v>77.0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="n" s="115">
         <v>77.0</v>
       </c>
     </row>
@@ -541,16 +2989,16 @@
       <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="130">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="132">
         <v>45</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" t="n" s="131">
         <v>15.0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="n" s="133">
         <v>88.0</v>
       </c>
     </row>
@@ -585,123 +3033,123 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="12">
         <v>46</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
       </c>
-      <c r="D3" t="n" s="6">
+      <c r="D3" t="n" s="157">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="12">
         <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n" s="6">
+      <c r="D4" t="n" s="157">
         <v>0.25</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="12">
         <v>48</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
       </c>
-      <c r="D5" t="n" s="6">
+      <c r="D5" t="n" s="157">
         <v>0.75</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="3">
+      <c r="B6" t="s" s="12">
         <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="D6" t="n" s="6">
+      <c r="D6" t="n" s="157">
         <v>0.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="3">
+      <c r="B7" t="s" s="12">
         <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D7" t="n" s="6">
+      <c r="D7" t="n" s="157">
         <v>0.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="s" s="3">
+      <c r="B8" t="s" s="12">
         <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="D8" t="n" s="6">
+      <c r="D8" t="n" s="157">
         <v>0.75</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="12">
         <v>52</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
       </c>
-      <c r="D9" t="n" s="6">
+      <c r="D9" t="n" s="157">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="12">
         <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
       </c>
-      <c r="D10" t="n" s="6">
+      <c r="D10" t="n" s="157">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="12">
         <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
       </c>
-      <c r="D11" t="n" s="6">
+      <c r="D11" t="n" s="157">
         <v>0.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="12">
         <v>55</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
       </c>
-      <c r="D12" t="n" s="6">
+      <c r="D12" t="n" s="157">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="12">
         <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
       </c>
-      <c r="D13" t="n" s="6">
+      <c r="D13" t="n" s="157">
         <v>0.3333333333333333</v>
       </c>
     </row>
@@ -712,6 +3160,1268 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="25.59765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H3" t="s" s="236">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="237">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H4" t="s" s="245">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s" s="246">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="254">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s" s="255">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G6" t="n" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="H6" t="s" s="262">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s" s="263">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="270">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="271">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G8" t="n" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="H8" t="s" s="278">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s" s="279">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="H9" t="s" s="286">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s" s="287">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="H10" t="s" s="295">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="296">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="25.59765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H3" t="s" s="238">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="239">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H4" t="s" s="247">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s" s="248">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="E5" t="n" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s" s="256">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s" s="257">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="G6" t="n" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="H6" t="s" s="264">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s" s="265">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="E7" t="n" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="272">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="273">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="G8" t="n" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="H8" t="s" s="280">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s" s="281">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="H9" t="s" s="288">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s" s="289">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="H10" t="s" s="297">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="298">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:I10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.59375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="17.59375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G4" t="n" s="13">
+        <v>0.9090909090909091</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n" s="240">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="s" s="241">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="242">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="243">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="244">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="n" s="13">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C8" t="n" s="249">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="s" s="250">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s" s="251">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s" s="252">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s" s="253">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="n" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="G10" t="n" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n" s="258">
+        <v>3.0</v>
+      </c>
+      <c r="D11" t="s" s="259">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s" s="260">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s" s="261">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E13" t="n" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="F13" t="n" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="G13" t="n" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n" s="266">
+        <v>4.0</v>
+      </c>
+      <c r="D14" t="s" s="267">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="268">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s" s="269">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C16" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D16" t="n" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F16" t="n" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="G16" t="n" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C17" t="n" s="274">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="s" s="275">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s" s="276">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s" s="277">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C19" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E19" t="n" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="F19" t="n" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="G19" t="n" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C20" t="n" s="282">
+        <v>6.0</v>
+      </c>
+      <c r="D20" t="s" s="283">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s" s="284">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s" s="285">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C23" t="n" s="290">
+        <v>7.0</v>
+      </c>
+      <c r="D23" t="s" s="291">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s" s="292">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s" s="293">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s" s="294">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="G25" t="n" s="13">
+        <v>4.866666666666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n" s="299">
+        <v>8.0</v>
+      </c>
+      <c r="D26" t="s" s="300">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s" s="301">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s" s="302">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s" s="303">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:G26"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.87109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.78515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="n" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="E4" t="n" s="13">
+        <v>0.8860103626943006</v>
+      </c>
+      <c r="F4" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>193.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C5" t="n" s="304">
+        <v>6.0</v>
+      </c>
+      <c r="D5" t="n" s="305">
+        <v>0.75</v>
+      </c>
+      <c r="G5" t="n" s="306">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="35.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.32421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.4609375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D3" t="n" s="157">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="157">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="n" s="157">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n" s="157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="n" s="157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="n" s="157">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n" s="157">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="n" s="157">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="157">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="12">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="n" s="157">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="n" s="157">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:D13"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -736,22 +4446,22 @@
       <c r="C2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
@@ -762,22 +4472,22 @@
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="307">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="310">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="308">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="311">
         <v>22</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="n" s="309">
         <v>11.0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="312">
         <v>21.0</v>
       </c>
     </row>
@@ -788,126 +4498,126 @@
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="313">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="316">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="314">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="317">
         <v>31</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="n" s="315">
         <v>12.0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="n" s="318">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n" s="2">
+      <c r="B5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="C5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="319">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="322">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="320">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" t="s" s="323">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n" s="321">
         <v>13.0</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="I5" t="s" s="324">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="2">
+      <c r="B6" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n" s="2">
+      <c r="C6" t="n" s="3">
         <v>4.0</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s" s="325">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="328">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="326">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="329">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="s" s="327">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n" s="330">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="2">
+      <c r="B7" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n" s="2">
+      <c r="C7" t="n" s="3">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="331">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="334">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="332">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" t="s" s="335">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n" s="333">
         <v>15.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7" t="s" s="336">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="2">
+      <c r="B8" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n" s="2">
+      <c r="C8" t="n" s="3">
         <v>6.0</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s" s="337">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="340">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="338">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="341">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="s" s="339">
+        <v>33</v>
+      </c>
+      <c r="I8" t="n" s="342">
         <v>26.0</v>
       </c>
     </row>
@@ -918,22 +4628,22 @@
       <c r="C9" t="n">
         <v>7.0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="343">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="346">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="344">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="347">
         <v>42</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="n" s="345">
         <v>77.0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="n" s="348">
         <v>77.0</v>
       </c>
     </row>
@@ -944,22 +4654,22 @@
       <c r="C10" t="n">
         <v>8.0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="349">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="352">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="350">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="353">
         <v>45</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" t="n" s="351">
         <v>15.0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="n" s="354">
         <v>88.0</v>
       </c>
     </row>
@@ -980,9 +4690,9 @@
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
@@ -1000,172 +4710,172 @@
       <c r="E2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="1">
+      <c r="F2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="1">
+      <c r="G2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="1">
+      <c r="H2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n" s="2">
+      <c r="B3" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="G3" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="11">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n" s="2">
+      <c r="B4" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="s" s="30">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n" s="31">
         <v>12.0</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="32">
         <v>31</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="n" s="33">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n" s="2">
+      <c r="B5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="C5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="G5" t="n" s="49">
         <v>13.0</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="H5" t="s" s="50">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s" s="51">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="2">
+      <c r="B6" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n" s="2">
+      <c r="C6" t="n" s="3">
         <v>4.0</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s" s="2">
+      <c r="D6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s" s="65">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="66">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s" s="67">
         <v>36</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="n" s="68">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="2">
+      <c r="B7" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n" s="2">
+      <c r="C7" t="n" s="3">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="82">
         <v>38</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n" s="83">
         <v>15.0</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="H7" t="s" s="84">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s" s="85">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="2">
+      <c r="B8" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n" s="2">
+      <c r="C8" t="n" s="3">
         <v>6.0</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s" s="2">
+      <c r="D8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" t="s" s="99">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="100">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s" s="101">
         <v>40</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="n" s="102">
         <v>26.0</v>
       </c>
     </row>
@@ -1180,18 +4890,18 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="116">
         <v>42</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n" s="117">
         <v>77.0</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="118">
         <v>42</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="n" s="119">
         <v>77.0</v>
       </c>
     </row>
@@ -1206,18 +4916,18 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s" s="134">
         <v>45</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n" s="135">
         <v>15.0</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="136">
         <v>45</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="n" s="137">
         <v>88.0</v>
       </c>
     </row>
@@ -1264,343 +4974,343 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C4" t="n" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="s" s="17">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="E4" t="s" s="18">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="19">
         <v>24</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G4" t="s" s="20">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="5">
+      <c r="B5" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n" s="21">
         <v>1.0</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="22">
         <v>11.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="n" s="23">
         <v>21.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="n" s="24">
         <v>10.0</v>
       </c>
-      <c r="G5" t="n" s="5">
+      <c r="G5" t="n" s="25">
         <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="3">
+      <c r="B6" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="s" s="35">
         <v>30</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="E7" t="s" s="36">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="37">
         <v>24</v>
       </c>
-      <c r="G6" t="s" s="4">
+      <c r="G7" t="s" s="38">
         <v>25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="s" s="3">
+    <row r="8">
+      <c r="B8" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="40">
+        <v>12.0</v>
+      </c>
+      <c r="E8" t="n" s="41">
+        <v>22.0</v>
+      </c>
+      <c r="F8" t="n" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G8" t="n" s="43">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C10" t="n" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="s" s="53">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="54">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="55">
         <v>24</v>
       </c>
-      <c r="G7" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s" s="3">
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G8" t="n" s="5">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="C11" t="n" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="D11" t="n" s="57">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="s" s="58">
+        <v>33</v>
+      </c>
+      <c r="F11" t="n" s="59">
+        <v>13.0</v>
+      </c>
+      <c r="G11" t="n" s="60">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C9" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="2">
+      <c r="C12" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="s" s="3">
+    <row r="13">
+      <c r="B13" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C13" t="n" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="s" s="70">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s" s="71">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s" s="72">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="14">
+      <c r="B14" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G11" t="n" s="5">
+      <c r="C14" t="n" s="73">
+        <v>4.0</v>
+      </c>
+      <c r="D14" t="s" s="74">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n" s="75">
+        <v>24.0</v>
+      </c>
+      <c r="F14" t="n" s="76">
+        <v>24.0</v>
+      </c>
+      <c r="G14" t="n" s="77">
         <v>1.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" t="s" s="3">
+    <row r="15">
+      <c r="B15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C12" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s" s="2">
+      <c r="C15" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="16">
+      <c r="B16" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C16" t="n" s="86">
+        <v>5.0</v>
+      </c>
+      <c r="D16" t="s" s="87">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="88">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="89">
         <v>24</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="s" s="3">
+    <row r="17">
+      <c r="B17" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G14" t="n" s="5">
+      <c r="C17" t="n" s="90">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="n" s="91">
+        <v>15.0</v>
+      </c>
+      <c r="E17" t="s" s="92">
+        <v>33</v>
+      </c>
+      <c r="F17" t="n" s="93">
+        <v>15.0</v>
+      </c>
+      <c r="G17" t="n" s="94">
         <v>1.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="18">
+      <c r="B18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C15" t="n" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="2">
+      <c r="C18" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" t="s" s="3">
+    <row r="19">
+      <c r="B19" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C19" t="n" s="103">
+        <v>6.0</v>
+      </c>
+      <c r="D19" t="s" s="104">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s" s="105">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s" s="106">
         <v>24</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
+    <row r="20">
+      <c r="B20" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G17" t="n" s="5">
+      <c r="C20" t="n" s="107">
+        <v>6.0</v>
+      </c>
+      <c r="D20" t="s" s="108">
+        <v>33</v>
+      </c>
+      <c r="E20" t="n" s="109">
+        <v>26.0</v>
+      </c>
+      <c r="F20" t="n" s="110">
+        <v>26.0</v>
+      </c>
+      <c r="G20" t="n" s="111">
         <v>1.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G20" t="n" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C21" t="n">
@@ -1615,52 +5325,52 @@
       <c r="F21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" t="s" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="n" s="120">
         <v>7.0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="121">
         <v>42</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="122">
         <v>42</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="123">
         <v>43</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" t="s" s="124">
         <v>25</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="n" s="125">
         <v>7.0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="n" s="126">
         <v>77.0</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="n" s="127">
         <v>77.0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="128">
         <v>43</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" t="s" s="129">
         <v>25</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C24" t="n">
@@ -1675,47 +5385,47 @@
       <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" t="s" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="n" s="138">
         <v>8.0</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="139">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="140">
         <v>45</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="141">
         <v>43</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" t="s" s="142">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="n" s="143">
         <v>8.0</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="n" s="144">
         <v>15.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" t="n" s="145">
         <v>88.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="n" s="146">
         <v>73.0</v>
       </c>
-      <c r="G26" t="n" s="5">
+      <c r="G26" t="n" s="147">
         <v>4.866666666666666</v>
       </c>
     </row>
@@ -1766,13 +5476,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
       </c>
-      <c r="D3" t="n" s="5">
+      <c r="D3" t="n" s="13">
         <v>0.75</v>
       </c>
       <c r="G3" t="n">
@@ -1780,39 +5490,39 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4" t="n" s="148">
+        <v>6.0</v>
+      </c>
+      <c r="D4" t="n" s="149">
+        <v>0.75</v>
+      </c>
+      <c r="G4" t="n" s="150">
         <v>8.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5" t="n" s="151">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="n" s="152">
+        <v>0.875</v>
+      </c>
+      <c r="E5" t="n" s="153">
+        <v>0.8860103626943006</v>
+      </c>
+      <c r="F5" t="n" s="154">
+        <v>171.0</v>
+      </c>
+      <c r="G5" t="n" s="156">
         <v>8.0</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="n" s="155">
         <v>193.0</v>
       </c>
     </row>
@@ -1847,123 +5557,123 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="12">
         <v>46</v>
       </c>
       <c r="C3" t="n">
         <v>8.0</v>
       </c>
-      <c r="D3" t="n" s="6">
+      <c r="D3" t="n" s="157">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="12">
         <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n" s="6">
+      <c r="D4" t="n" s="157">
         <v>0.25</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="12">
         <v>48</v>
       </c>
       <c r="C5" t="n">
         <v>6.0</v>
       </c>
-      <c r="D5" t="n" s="6">
+      <c r="D5" t="n" s="157">
         <v>0.75</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="3">
+      <c r="B6" t="s" s="12">
         <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="D6" t="n" s="6">
+      <c r="D6" t="n" s="157">
         <v>0.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="3">
+      <c r="B7" t="s" s="12">
         <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
       </c>
-      <c r="D7" t="n" s="6">
+      <c r="D7" t="n" s="157">
         <v>0.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="s" s="3">
+      <c r="B8" t="s" s="12">
         <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="D8" t="n" s="6">
+      <c r="D8" t="n" s="157">
         <v>0.75</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="12">
         <v>52</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
       </c>
-      <c r="D9" t="n" s="6">
+      <c r="D9" t="n" s="157">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="12">
         <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
       </c>
-      <c r="D10" t="n" s="6">
+      <c r="D10" t="n" s="157">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="12">
         <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>6.0</v>
       </c>
-      <c r="D11" t="n" s="6">
+      <c r="D11" t="n" s="157">
         <v>0.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="12">
         <v>55</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
       </c>
-      <c r="D12" t="n" s="6">
+      <c r="D12" t="n" s="157">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="12">
         <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
       </c>
-      <c r="D13" t="n" s="6">
+      <c r="D13" t="n" s="157">
         <v>0.3333333333333333</v>
       </c>
     </row>
@@ -2002,174 +5712,174 @@
         <v>2</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s" s="1">
+      <c r="H2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n" s="2">
+      <c r="B3" t="n" s="3">
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="n" s="158">
         <v>11.0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="159">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n" s="2">
+      <c r="B4" t="n" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="n" s="167">
         <v>12.0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="n" s="168">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n" s="2">
+      <c r="B5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="C5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n" s="176">
         <v>13.0</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="I5" t="s" s="177">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="2">
+      <c r="B6" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n" s="2">
+      <c r="C6" t="n" s="3">
         <v>4.0</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s" s="2">
+      <c r="D6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="F6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s" s="2">
+      <c r="F6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="s" s="185">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n" s="186">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="2">
+      <c r="B7" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n" s="2">
+      <c r="C7" t="n" s="3">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="2">
+      <c r="E7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n" s="194">
         <v>15.0</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7" t="s" s="195">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="2">
+      <c r="B8" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n" s="2">
+      <c r="C8" t="n" s="3">
         <v>6.0</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="2">
+      <c r="D8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s" s="2">
+      <c r="F8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="s" s="203">
+        <v>33</v>
+      </c>
+      <c r="I8" t="n" s="204">
         <v>26.0</v>
       </c>
     </row>
@@ -2192,10 +5902,10 @@
       <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="n" s="212">
         <v>77.0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="n" s="213">
         <v>77.0</v>
       </c>
     </row>
@@ -2218,10 +5928,10 @@
       <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" t="n" s="221">
         <v>15.0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="n" s="222">
         <v>88.0</v>
       </c>
     </row>
@@ -2243,9 +5953,9 @@
     <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2260,174 +5970,174 @@
         <v>2</v>
       </c>
       <c r="E2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="1">
-        <v>4</v>
-      </c>
       <c r="G2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s" s="1">
+      <c r="I2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n" s="2">
+      <c r="B3" t="n" s="3">
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="H3" t="n" s="160">
         <v>11.0</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="n" s="161">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n" s="2">
+      <c r="B4" t="n" s="3">
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="D4" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="3">
         <v>29</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="H4" t="n" s="169">
         <v>12.0</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="n" s="170">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n" s="2">
+      <c r="B5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n" s="2">
+      <c r="C5" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n" s="178">
         <v>13.0</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="I5" t="s" s="179">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="2">
+      <c r="B6" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n" s="2">
+      <c r="C6" t="n" s="3">
         <v>4.0</v>
       </c>
-      <c r="D6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s" s="2">
+      <c r="D6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="H6" t="s" s="2">
+      <c r="G6" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="I6" t="n">
+      <c r="H6" t="s" s="187">
+        <v>33</v>
+      </c>
+      <c r="I6" t="n" s="188">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="2">
+      <c r="B7" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n" s="2">
+      <c r="C7" t="n" s="3">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="H7" t="n" s="196">
         <v>15.0</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7" t="s" s="197">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="2">
+      <c r="B8" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n" s="2">
+      <c r="C8" t="n" s="3">
         <v>6.0</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s" s="2">
+      <c r="D8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="G8" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="I8" t="n">
+      <c r="H8" t="s" s="205">
+        <v>33</v>
+      </c>
+      <c r="I8" t="n" s="206">
         <v>26.0</v>
       </c>
     </row>
@@ -2444,16 +6154,16 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="n" s="214">
         <v>77.0</v>
       </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="n" s="215">
         <v>77.0</v>
       </c>
     </row>
@@ -2470,16 +6180,16 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="n" s="223">
         <v>15.0</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="n" s="224">
         <v>88.0</v>
       </c>
     </row>
@@ -2526,343 +6236,343 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="E3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="12">
         <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s" s="2">
+      <c r="D4" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="4">
+      <c r="G4" t="s" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="162">
         <v>1.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="n" s="163">
         <v>11.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="n" s="164">
         <v>21.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="n" s="165">
         <v>10.0</v>
       </c>
-      <c r="G5" t="n" s="5">
+      <c r="G5" t="n" s="166">
         <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="s" s="3">
+      <c r="B6" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
       </c>
-      <c r="D6" t="s" s="2">
+      <c r="D6" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="E6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s" s="2">
+      <c r="E6" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="G6" t="s" s="4">
+      <c r="G6" t="s" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="3">
+      <c r="B7" t="s" s="12">
         <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s" s="2">
+      <c r="D7" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="F7" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="G7" t="s" s="4">
+      <c r="G7" t="s" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="s" s="3">
+      <c r="B8" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="171">
         <v>2.0</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="n" s="172">
         <v>12.0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" t="n" s="173">
         <v>22.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="n" s="174">
         <v>10.0</v>
       </c>
-      <c r="G8" t="n" s="5">
+      <c r="G8" t="n" s="175">
         <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C9" t="n" s="2">
+      <c r="C9" t="n" s="3">
         <v>3.0</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D9" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="C10" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="E10" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="s" s="3">
+    <row r="11">
+      <c r="B11" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n" s="180">
+        <v>3.0</v>
+      </c>
+      <c r="D11" t="n" s="181">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="s" s="182">
+        <v>33</v>
+      </c>
+      <c r="F11" t="n" s="183">
+        <v>13.0</v>
+      </c>
+      <c r="G11" t="n" s="184">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="C10" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s" s="2">
+      <c r="C13" t="n" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="14">
+      <c r="B14" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G11" t="n" s="5">
+      <c r="C14" t="n" s="189">
+        <v>4.0</v>
+      </c>
+      <c r="D14" t="s" s="190">
+        <v>33</v>
+      </c>
+      <c r="E14" t="n" s="191">
+        <v>24.0</v>
+      </c>
+      <c r="F14" t="n" s="192">
+        <v>24.0</v>
+      </c>
+      <c r="G14" t="n" s="193">
         <v>1.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" t="s" s="3">
+    <row r="15">
+      <c r="B15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C12" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s" s="2">
+      <c r="C15" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="16">
+      <c r="B16" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="C13" t="n" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s" s="2">
+      <c r="C16" t="n" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D16" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="s" s="3">
+    <row r="17">
+      <c r="B17" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="G14" t="n" s="5">
+      <c r="C17" t="n" s="198">
+        <v>5.0</v>
+      </c>
+      <c r="D17" t="n" s="199">
+        <v>15.0</v>
+      </c>
+      <c r="E17" t="s" s="200">
+        <v>33</v>
+      </c>
+      <c r="F17" t="n" s="201">
+        <v>15.0</v>
+      </c>
+      <c r="G17" t="n" s="202">
         <v>1.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="18">
+      <c r="B18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C15" t="n" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s" s="2">
+      <c r="C18" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D18" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" t="s" s="3">
+    <row r="19">
+      <c r="B19" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="C16" t="n" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s" s="2">
+      <c r="C19" t="n" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D19" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="s" s="3">
+    <row r="20">
+      <c r="B20" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G17" t="n" s="5">
+      <c r="C20" t="n" s="207">
+        <v>6.0</v>
+      </c>
+      <c r="D20" t="s" s="208">
+        <v>33</v>
+      </c>
+      <c r="E20" t="n" s="209">
+        <v>26.0</v>
+      </c>
+      <c r="F20" t="n" s="210">
+        <v>26.0</v>
+      </c>
+      <c r="G20" t="n" s="211">
         <v>1.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G20" t="n" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C21" t="n">
@@ -2877,12 +6587,12 @@
       <c r="F21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" t="s" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="12">
         <v>26</v>
       </c>
       <c r="C22" t="n">
@@ -2897,32 +6607,32 @@
       <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s" s="5">
+      <c r="G22" t="s" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="3">
+      <c r="B23" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="n" s="216">
         <v>7.0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="n" s="217">
         <v>77.0</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="n" s="218">
         <v>77.0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="219">
         <v>43</v>
       </c>
-      <c r="G23" t="s" s="5">
+      <c r="G23" t="s" s="220">
         <v>25</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C24" t="n">
@@ -2937,12 +6647,12 @@
       <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s" s="5">
+      <c r="G24" t="s" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="12">
         <v>26</v>
       </c>
       <c r="C25" t="n">
@@ -2957,27 +6667,27 @@
       <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="G25" t="s" s="5">
+      <c r="G25" t="s" s="13">
         <v>25</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="n" s="225">
         <v>8.0</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="n" s="226">
         <v>15.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" t="n" s="227">
         <v>88.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="n" s="228">
         <v>73.0</v>
       </c>
-      <c r="G26" t="n" s="5">
+      <c r="G26" t="n" s="229">
         <v>4.866666666666666</v>
       </c>
     </row>
@@ -3028,13 +6738,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="12">
         <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
       </c>
-      <c r="D3" t="n" s="5">
+      <c r="D3" t="n" s="13">
         <v>0.75</v>
       </c>
       <c r="G3" t="n">
@@ -3042,13 +6752,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="12">
         <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>6.0</v>
       </c>
-      <c r="D4" t="n" s="5">
+      <c r="D4" t="n" s="13">
         <v>0.75</v>
       </c>
       <c r="G4" t="n">
@@ -3056,25 +6766,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="15">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5" t="n" s="230">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="n" s="231">
+        <v>0.875</v>
+      </c>
+      <c r="E5" t="n" s="232">
+        <v>0.8860103626943006</v>
+      </c>
+      <c r="F5" t="n" s="233">
+        <v>171.0</v>
+      </c>
+      <c r="G5" t="n" s="235">
         <v>8.0</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="n" s="234">
         <v>193.0</v>
       </c>
     </row>

--- a/tests/data/desired/columnscomparisonreport.xlsx
+++ b/tests/data/desired/columnscomparisonreport.xlsx
@@ -74,10 +74,10 @@
     <t>Column Name</t>
   </si>
   <si>
-    <t>Source1</t>
-  </si>
-  <si>
-    <t>Source2</t>
+    <t>Value in Source1</t>
+  </si>
+  <si>
+    <t>Value in Source2</t>
   </si>
   <si>
     <t>Difference</t>
@@ -588,11 +588,6 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <b val="true"/>
       <color indexed="23"/>
     </font>
@@ -605,6 +600,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="55"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -783,9 +783,9 @@
     <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="165" fontId="64" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="65" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="67" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="67" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="68" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="165" fontId="70" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyNumberFormat="true"/>
@@ -1069,8 +1069,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="35.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.4609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1268,10 +1268,10 @@
       <c r="E3" t="s" s="58">
         <v>20</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="n" s="58">
         <v>11.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="n" s="58">
         <v>21.0</v>
       </c>
       <c r="H3" t="s" s="59">
@@ -1294,10 +1294,10 @@
       <c r="E4" t="s" s="58">
         <v>29</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="n" s="58">
         <v>12.0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="n" s="58">
         <v>22.0</v>
       </c>
       <c r="H4" t="s" s="59">
@@ -1450,10 +1450,10 @@
       <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="n" s="58">
         <v>15.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="n" s="58">
         <v>88.0</v>
       </c>
       <c r="H10" t="s" s="59">
@@ -1523,13 +1523,13 @@
       <c r="D3" t="s" s="60">
         <v>19</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="n" s="60">
         <v>11.0</v>
       </c>
       <c r="F3" t="s" s="60">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="n" s="60">
         <v>21.0</v>
       </c>
       <c r="H3" t="s" s="61">
@@ -1549,13 +1549,13 @@
       <c r="D4" t="s" s="60">
         <v>28</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="n" s="60">
         <v>12.0</v>
       </c>
       <c r="F4" t="s" s="60">
         <v>29</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" t="n" s="60">
         <v>22.0</v>
       </c>
       <c r="H4" t="s" s="61">
@@ -1705,13 +1705,13 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="n" s="60">
         <v>15.0</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="n" s="60">
         <v>88.0</v>
       </c>
       <c r="H10" t="s" s="61">
@@ -1737,9 +1737,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.59375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.59375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.8515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.8515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1790,36 +1790,36 @@
       <c r="C4" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="n" s="63">
         <v>11.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="n" s="63">
         <v>21.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="n" s="63">
         <v>10.0</v>
       </c>
-      <c r="G4" t="n" s="65">
+      <c r="G4" t="n" s="64">
         <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="66">
+      <c r="B5" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C5" t="n" s="67">
+      <c r="C5" t="n" s="66">
         <v>1.0</v>
       </c>
-      <c r="D5" t="s" s="67">
+      <c r="D5" t="s" s="66">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="67">
+      <c r="E5" t="s" s="66">
         <v>22</v>
       </c>
-      <c r="F5" t="s" s="67">
+      <c r="F5" t="s" s="66">
         <v>24</v>
       </c>
-      <c r="G5" t="s" s="68">
+      <c r="G5" t="s" s="67">
         <v>25</v>
       </c>
     </row>
@@ -1850,36 +1850,36 @@
       <c r="C7" t="n">
         <v>2.0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="n" s="63">
         <v>12.0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="n" s="63">
         <v>22.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="n" s="63">
         <v>10.0</v>
       </c>
-      <c r="G7" t="n" s="65">
+      <c r="G7" t="n" s="64">
         <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="s" s="66">
+      <c r="B8" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C8" t="n" s="67">
+      <c r="C8" t="n" s="66">
         <v>2.0</v>
       </c>
-      <c r="D8" t="s" s="67">
+      <c r="D8" t="s" s="66">
         <v>30</v>
       </c>
-      <c r="E8" t="s" s="67">
+      <c r="E8" t="s" s="66">
         <v>31</v>
       </c>
-      <c r="F8" t="s" s="67">
+      <c r="F8" t="s" s="66">
         <v>24</v>
       </c>
-      <c r="G8" t="s" s="68">
+      <c r="G8" t="s" s="67">
         <v>25</v>
       </c>
     </row>
@@ -1921,19 +1921,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="66">
+      <c r="B11" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C11" t="n" s="67">
+      <c r="C11" t="n" s="66">
         <v>3.0</v>
       </c>
-      <c r="D11" t="s" s="67">
+      <c r="D11" t="s" s="66">
         <v>34</v>
       </c>
-      <c r="E11" t="s" s="67">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s" s="67">
+      <c r="E11" t="s" s="66">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s" s="66">
         <v>24</v>
       </c>
     </row>
@@ -1975,19 +1975,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="66">
+      <c r="B14" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C14" t="n" s="67">
+      <c r="C14" t="n" s="66">
         <v>4.0</v>
       </c>
-      <c r="D14" t="s" s="67">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s" s="67">
+      <c r="D14" t="s" s="66">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="66">
         <v>36</v>
       </c>
-      <c r="F14" t="s" s="67">
+      <c r="F14" t="s" s="66">
         <v>24</v>
       </c>
     </row>
@@ -2029,19 +2029,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="66">
+      <c r="B17" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C17" t="n" s="67">
+      <c r="C17" t="n" s="66">
         <v>5.0</v>
       </c>
-      <c r="D17" t="s" s="67">
+      <c r="D17" t="s" s="66">
         <v>38</v>
       </c>
-      <c r="E17" t="s" s="67">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s" s="67">
+      <c r="E17" t="s" s="66">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s" s="66">
         <v>24</v>
       </c>
     </row>
@@ -2083,19 +2083,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="66">
+      <c r="B20" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C20" t="n" s="67">
+      <c r="C20" t="n" s="66">
         <v>6.0</v>
       </c>
-      <c r="D20" t="s" s="67">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s" s="67">
+      <c r="D20" t="s" s="66">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s" s="66">
         <v>40</v>
       </c>
-      <c r="F20" t="s" s="67">
+      <c r="F20" t="s" s="66">
         <v>24</v>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       <c r="F21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s" s="65">
+      <c r="G21" t="s" s="68">
         <v>25</v>
       </c>
     </row>
@@ -2135,27 +2135,27 @@
       <c r="F22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" t="s" s="65">
+      <c r="G22" t="s" s="68">
         <v>25</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="66">
+      <c r="B23" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C23" t="n" s="67">
+      <c r="C23" t="n" s="66">
         <v>7.0</v>
       </c>
-      <c r="D23" t="s" s="67">
+      <c r="D23" t="s" s="66">
         <v>42</v>
       </c>
-      <c r="E23" t="s" s="67">
+      <c r="E23" t="s" s="66">
         <v>42</v>
       </c>
-      <c r="F23" t="s" s="67">
+      <c r="F23" t="s" s="66">
         <v>43</v>
       </c>
-      <c r="G23" t="s" s="68">
+      <c r="G23" t="s" s="67">
         <v>25</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
       <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="G24" t="s" s="65">
+      <c r="G24" t="s" s="68">
         <v>25</v>
       </c>
     </row>
@@ -2186,36 +2186,36 @@
       <c r="C25" t="n">
         <v>8.0</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="n" s="63">
         <v>15.0</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" t="n" s="63">
         <v>88.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" t="n" s="63">
         <v>73.0</v>
       </c>
-      <c r="G25" t="n" s="65">
+      <c r="G25" t="n" s="64">
         <v>4.866666666666666</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="66">
+      <c r="B26" t="s" s="65">
         <v>26</v>
       </c>
-      <c r="C26" t="n" s="67">
+      <c r="C26" t="n" s="66">
         <v>8.0</v>
       </c>
-      <c r="D26" t="s" s="67">
+      <c r="D26" t="s" s="66">
         <v>45</v>
       </c>
-      <c r="E26" t="s" s="67">
+      <c r="E26" t="s" s="66">
         <v>45</v>
       </c>
-      <c r="F26" t="s" s="67">
+      <c r="F26" t="s" s="66">
         <v>43</v>
       </c>
-      <c r="G26" t="s" s="68">
+      <c r="G26" t="s" s="67">
         <v>25</v>
       </c>
     </row>
@@ -2235,9 +2235,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.87109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.55078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.484375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.78515625" customWidth="true" bestFit="true"/>
   </cols>
@@ -2331,8 +2331,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="35.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.4609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2999,9 +2999,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.59375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.59375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.8515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.8515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3497,9 +3497,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.87109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.55078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.484375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.78515625" customWidth="true" bestFit="true"/>
   </cols>
@@ -3593,8 +3593,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="35.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.32421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.4609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -4261,9 +4261,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.59375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="17.59375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.8515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.8515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4759,9 +4759,9 @@
   <cols>
     <col min="2" max="2" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.87109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.75390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.55078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.484375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="15.78515625" customWidth="true" bestFit="true"/>
   </cols>
